--- a/src/test/java/ApachePOI/_10_ExcelKayit.xlsx
+++ b/src/test/java/ApachePOI/_10_ExcelKayit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>10.09.22</t>
+  </si>
+  <si>
+    <t>States testing cith JDBC</t>
+  </si>
+  <si>
+    <t>21.09.22</t>
+  </si>
+  <si>
+    <t>22.09.22</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -214,6 +223,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
